--- a/php-fw8/test.xlsx
+++ b/php-fw8/test.xlsx
@@ -1,28 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\fevaworks-php-master\php-fw8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="sms" sheetId="2" r:id="rId2"/>
+    <sheet name="news" sheetId="3" r:id="rId3"/>
+    <sheet name="products" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>HKID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>createdate</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>a_i</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>0000-00-00 00:00:00</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -70,8 +126,27 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Length"/>
+    <tableColumn id="4" name="null"/>
+    <tableColumn id="5" name="default"/>
+    <tableColumn id="6" name="index"/>
+    <tableColumn id="7" name="a_i"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -117,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,21 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -506,4 +580,181 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E3" sqref="B1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>